--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgsinc1-my.sharepoint.com/personal/hvrthotapalli_cgsinc_com/Documents/Documents/UiPath/InvoiceData_Extraction_Process_REF/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0C3C8479-2F64-4AD5-859F-A77754852096}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A029E5CB-6947-46AB-9D17-97EF20378C8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,10 +186,10 @@
     <t>InvoiceData</t>
   </si>
   <si>
-    <t>InvoiceExtraction_Queue</t>
-  </si>
-  <si>
     <t>InvoiceExtraction Process</t>
+  </si>
+  <si>
+    <t>12-03-2021_InvoiceExtraction_Queue</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -643,7 +643,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
